--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T10:42:30+00:00</t>
+    <t>2022-08-30T07:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,11 +255,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>A set of images produced in single study (one or more series of references images)　単一の検査スタディで生成された画像のセット（1つ以上の一連の参照画像）</t>
-  </si>
-  <si>
-    <t>Representation of the content produced in a DICOM imaging study. A study comprises a set of series, each of which includes a set of Service-Object Pair Instances (SOP Instances - images or other data) acquired or produced in a common context.  A series is of only one modality (e.g. X-ray, CT, MR, ultrasound), but a study may have multiple series of different modalities.
-DICOM画像検査で作成されたコンテンツの表現。スタディは一連のシリーズで構成され、各シリーズには、共通のコンテキストで取得または生成された一連のサービスオブジェクトペアインスタンス（SOPインスタンス-画像またはその他のデータ）が含まれる。シリーズは1つのモダリティ（X線、CT、MR、超音波など）のみだが、スタディには複数の異なるモダリティのシリーズが含まれる場合がある。</t>
+    <t>DICOM画像検査で作成されたコンテンツの表現。スタディは一連のシリーズで構成され、各シリーズには、共通のコンテキストで取得または生成された一連のサービスオブジェクトペアインスタンス（SOPインスタンス-画像またはその他のデータ）が含まれる。シリーズは1つのモダリティ（X線、CT、MR、超音波など）のみだが、スタディには複数の異なるモダリティのシリーズが含まれる場合がある。</t>
+  </si>
+  <si>
+    <t>Representation of the content produced in a DICOM imaging study. A study comprises a set of series, each of which includes a set of Service-Object Pair Instances (SOP Instances - images or other data) acquired or produced in a common context.  A series is of only one modality (e.g. X-ray, CT, MR, ultrasound), but a study may have multiple series of different modalities.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -473,20 +472,17 @@
 </t>
   </si>
   <si>
-    <t>Identifiers for the whole study　スタディ全体の識別子</t>
-  </si>
-  <si>
-    <t>Identifiers for the ImagingStudy such as DICOM Study Instance UID, and Accession Number.
-DICOMスタディインスタンスUIDやアクセッション番号などのImagingStudyの識別子。</t>
-  </si>
-  <si>
-    <t>See discussion under [Imaging Study Implementation Notes](imagingstudy.html#notes) for encoding of DICOM Study Instance UID. Accession Number should use ACSN Identifier type.
-DICOMスタディインスタンスUIDのエンコードについては、[Imaging Study Implementation Notes]（imagingstudy.html＃notes）の説明を参照。アクセッション番号はACSN識別子タイプを使用する必要がある。
+    <t>スタディ全体の識別子</t>
+  </si>
+  <si>
+    <t>DICOMスタディインスタンスUIDやアクセッション番号などのImagingStudyの識別子。</t>
+  </si>
+  <si>
+    <t>DICOMスタディインスタンスUIDのエンコードについては、[Imaging Study Implementation Notes]（imagingstudy.html＃notes）の説明を参照。アクセッション番号はACSN識別子タイプを使用する必要がある。
 【JP-Core仕様】Study Instance UIDは必須、その他は任意。</t>
   </si>
   <si>
-    <t>If one or more series elements are present in the ImagingStudy, then there shall be one DICOM Study UID identifier (see [DICOM PS 3.3 C.7.2](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html).
-ImagingStudyに1つ以上のシリーズ要素が存在する場合、1つのDICOMスタディUID識別子が存在する必要がある（[DICOM PS 3.3 C.7.2]（http://dicom.nema.org/medical/dicom/current/output/を参照） chtml / part03 / sect_C.7.2.html）。</t>
+    <t>ImagingStudyに1つ以上のシリーズ要素が存在する場合、1つのDICOMスタディUID識別子が存在する必要がある（[DICOM PS 3.3 C.7.2]（https://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html）を参照） 。</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -507,12 +503,10 @@
     <t>registered | available | cancelled | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>The current state of the ImagingStudy.　
-ImagingStudyの現在のステータス</t>
-  </si>
-  <si>
-    <t>Unknown does not represent "other" - one of the defined statuses must apply.  Unknown is used when the authoring system is not sure what the current status is.
-不明は「その他」を表すものではない。定義されたステータスの1つを適用する必要がある。不明は、オーサリングシステムが現在のステータスを確認できない場合に使用される。
+    <t>ImagingStudyの現在のステータス</t>
+  </si>
+  <si>
+    <t>不明(unknown)は「その他」を表すものではない。定義されたステータスの1つを適用する必要がある。不明(unknown)は、オーサリングシステムが現在のステータスを確認できない場合に使用される。
 【JP-Core仕様】リソースの状態。</t>
   </si>
   <si>
@@ -548,15 +542,13 @@
 </t>
   </si>
   <si>
-    <t>All series modality if actual acquisition modalities　実際の取得モダリティーの場合、モダリティーの全シリーズ</t>
-  </si>
-  <si>
-    <t>A list of all the series.modality values that are actual acquisition modalities, i.e. those in the DICOM Context Group 29 (value set OID 1.2.840.10008.6.1.19).
-実際の取得モダリティであるすべてのseries.modality値のリスト、つまりDICOMコンテキストグループ29（値セットOID 1.2.840.10008.6.1.19）の値。</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常にカジュアルに定義できる。詳細については、HL7v3コア原則を参照のこと。
+    <t>実際の取得モダリティーの場合、モダリティーの全シリーズ。対応するDICOM tag: (0008, 0061)</t>
+  </si>
+  <si>
+    <t>実際の取得モダリティであるすべてのseries.modality値のリスト、つまりDICOMコンテキストグループ29（値セットOID 1.2.840.10008.6.1.19）の値。</t>
+  </si>
+  <si>
+    <t>コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常にカジュアルに定義できる。詳細については、HL7v3コア原則を参照のこと。
 ・モダリティのコードを設定。
 ・Seriesの階層の(0008,0060)を集約する、または(0008,0060)　と　(0008, 0061) のOR。但し、重複する値は1つにまとめて表現。</t>
   </si>
@@ -586,15 +578,13 @@
 </t>
   </si>
   <si>
-    <t>Who or what is the subject of the study　検査対象者</t>
-  </si>
-  <si>
-    <t>The subject, typically a patient, of the imaging study.
-画像検査の対象、通常は患者。</t>
-  </si>
-  <si>
-    <t>QA phantoms can be recorded with a Device; multiple subjects (such as mice) can be recorded with a Group.
-QAファントムはデバイスで記録できる。複数の被験者（マウスなど）をグループで記録できる。
+    <t>検査対象者</t>
+  </si>
+  <si>
+    <t>画像検査の対象、通常は患者。</t>
+  </si>
+  <si>
+    <t>QAファントムはDeviceリソースとして記録できる。複数の被験者（マウスなど）の場合はGroupリソースで記録できる。
 ・患者(Patient)リソースを参照。
 ・DICOMタグ値を参照する場合は、tag mappingの通りグループ0010（患者情報に関連する情報を扱うグループ）を参照。
 ・不明患者は、空もしくは不明を指すPatientリソースを参照。</t>
@@ -619,15 +609,13 @@
 </t>
   </si>
   <si>
-    <t>Encounter with which this imaging study is associated　この画像検査が関連しているエンカウンター</t>
-  </si>
-  <si>
-    <t>The healthcare event (e.g. a patient and healthcare provider interaction) during which this ImagingStudy is made.
-このImagingStudyが行われるヘルスケアイベント（患者とヘルスケアプロバイダーの相互作用など）。</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission test).
-これは通常、イベントが発生したエンカウンターであるが、一部のイベントは、エンカウンターの正式な完了の前または後に開始される場合があり、それでもそのエンカウンターのコンテキストに関連付けられている（例：入院前の検査）
+    <t>この画像検査が関連しているEncounterリソース</t>
+  </si>
+  <si>
+    <t>このImagingStudyが行われるヘルスケアイベント（患者とヘルスケアプロバイダーの相互作用など）。</t>
+  </si>
+  <si>
+    <t>これは通常、イベントが発生したエンカウンターであるが、一部のイベントは、エンカウンターの正式な完了の前または後に開始される場合があり、それでもそのエンカウンターのコンテキストに関連付けられている（例：入院前の検査）
 受付を示すEncounterリソースを参照。
 （補足：訪問診療では医療者が患者と会った事を指す）</t>
   </si>
@@ -652,11 +640,10 @@
 </t>
   </si>
   <si>
-    <t>When the study was started　スタディの開始時期</t>
-  </si>
-  <si>
-    <t>Date and time the study started.
-スタディーの開始日時</t>
+    <t>スタディの開始時期</t>
+  </si>
+  <si>
+    <t>スタディの開始日時</t>
   </si>
   <si>
     <t>検査開始日時　もしくは　撮影装置へ患者情報が届いた/入力した日時。</t>
@@ -684,19 +671,17 @@
 </t>
   </si>
   <si>
-    <t>Request fulfilled　実施された依頼</t>
-  </si>
-  <si>
-    <t>A list of the diagnostic requests that resulted in this imaging study being performed.
-この画像検査の実施につながった診断依頼のリスト。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
+    <t>実施された依頼</t>
+  </si>
+  <si>
+    <t>この画像検査の実施につながった診断依頼のリスト。</t>
+  </si>
+  <si>
+    <t>参照は、実在するFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的に使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 依頼元のServiceRequestを紐付ける。</t>
   </si>
   <si>
-    <t>To support grouped procedures (one imaging study supporting multiple ordered procedures, e.g. chest/abdomen/pelvis CT).</t>
+    <t>グループ化された手技をサポートすること。（一つの画像検査に複数の種類の手技が含まれることがある。例：胸部/腹部/骨盤部 CT）</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -722,15 +707,10 @@
 </t>
   </si>
   <si>
-    <t>Referring physician　依頼紹介医師</t>
-  </si>
-  <si>
-    <t>The requesting/referring physician.
-依頼紹介医師</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
+    <t>依頼紹介医師</t>
+  </si>
+  <si>
+    <t>参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 依頼医師。必須ではない（ServiceRequestから参照できるため）。</t>
   </si>
   <si>
@@ -747,15 +727,10 @@
 </t>
   </si>
   <si>
-    <t>Who interpreted images　画像の読影者</t>
-  </si>
-  <si>
-    <t>Who read the study and interpreted the images or other content.
-画像の読影者</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
+    <t>画像の読影者</t>
+  </si>
+  <si>
+    <t>参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 読影医</t>
   </si>
   <si>
@@ -775,19 +750,17 @@
 </t>
   </si>
   <si>
-    <t>Study access endpoint　スタディーにアクセスするエンドポイント</t>
-  </si>
-  <si>
-    <t>The network service providing access (e.g., query, view, or retrieval) for the study. See implementation notes for information about using DICOM endpoints. A study-level endpoint applies to each series in the study, unless overridden by a series-level endpoint with the same Endpoint.connectionType.
-スタディーへのアクセス（クエリ、表示、取得など）を提供するネットワークサービス。 DICOMエンドポイントの使用については、実装ノートを参照。スタディレベルのエンドポイントは、同じEndpoint.connectionType.cを持つシリーズレベルのエンドポイントによってオーバーライドされない限り、スタディの各シリーズに適用される。</t>
-  </si>
-  <si>
-    <t>Typical endpoint types include DICOM WADO-RS, which is used to retrieve DICOM instances in native or rendered (e.g., JPG, PNG), formats using a RESTful API; DICOM WADO-URI, which can similarly retrieve native or rendered instances, except using an HTTP query-based approach; DICOM QIDO-RS, which allows RESTful query for DICOM information without retrieving the actual instances; or IHE Invoke Image Display (IID), which provides standard invocation of an imaging web viewer.
-典型的なエンドポイントタイプには、RESTful APIを使用してネイティブまたはレンダリング（JPG、PNGなど）形式でDICOMインスタンスを取得するために使用されるDICOMWADO-RSが含まれる。 DICOMWADO-URI。HTTPクエリベースのアプローチを使用することを除いて、ネイティブインスタンスまたはレンダリングされたインスタンスを同様に取得できる。 DICOM QIDO-RS。実際のインスタンスを取得せずに、DICOM情報のRESTfulクエリを可能にする。またはIHEInvoke Image Display（IID）。これは、イメージングWebビューアの標準的な呼び出しを提供する。
+    <t>スタディにアクセスするエンドポイント</t>
+  </si>
+  <si>
+    <t>スタディへのアクセス（クエリ、表示、取得など）を提供するネットワークサービス。 DICOMエンドポイントの使用については、実装ノートを参照。スタディレベルのエンドポイントは、同じEndpoint.connectionTypeを持つシリーズレベルのエンドポイントによってオーバーライドされない限り、スタディの各シリーズに適用される。</t>
+  </si>
+  <si>
+    <t>典型的なエンドポイントタイプには、RESTful APIを使用してネイティブまたはレンダリング（JPG、PNGなど）形式でDICOMインスタンスを取得するために使用されるDICOMWADO-RSが含まれる。 DICOMWADO-URI。HTTPクエリベースのアプローチを使用することを除いて、ネイティブインスタンスまたはレンダリングされたインスタンスを同様に取得できる。 DICOM QIDO-RS。実際のインスタンスを取得せずに、DICOM情報のRESTfulクエリを可能にする。またはIHEInvoke Image Display（IID）。これは、イメージングWebビューアの標準的な呼び出しを提供する。
 DICOMのリソース位置を指定。基本的には1つ。</t>
   </si>
   <si>
-    <t>Access methods for viewing (e.g., IHE’s IID profile) or retrieving (e.g., DICOM’s WADO-URI and WADO-RS) the study or the study’s series or instances. The study-level baseLocation applies to each series in the study, unless overridden in series by a series-level baseLocation of the same type.</t>
+    <t>スタディまたはスタディに含まれるシリーズやインスタンスを閲覧（例：IHE’s IID profile）したり、取得（例：DICOM’s WADO-URI and WADO-RS）したりするためのアクセス方法。スタディレベルのbaseLocationは、同じタイプのシリーズレベルのbaseLocationにてオーバーライドされない限り、スタディ内の各シリーズに適用される。</t>
   </si>
   <si>
     <t>Not supported</t>
@@ -804,15 +777,13 @@
 </t>
   </si>
   <si>
-    <t>Number of Study Related Series　スタディー関連のシリーズ数</t>
-  </si>
-  <si>
-    <t>Number of Series in the Study. This value given may be larger than the number of series elements this Resource contains due to resource availability, security, or other factors. This element should be present if any series elements are present.
-調査のシリーズ数。指定されたこの値は、リソースの可用性、セキュリティ、またはその他の要因により、このリソースに含まれる一連の要素の数よりも大きい場合がある。系列要素が存在する場合、この要素が存在する必要がある。</t>
-  </si>
-  <si>
-    <t>32 bit number; for values larger than this, use decimal
-32ビット数;これより大きい値の場合は、10進数を使用する。
+    <t>スタディに含まれるシリーズ数</t>
+  </si>
+  <si>
+    <t>調査のシリーズ数。指定されたこの値は、リソースの可用性、セキュリティ、またはその他の要因により、このリソースに含まれる一連の要素の数よりも大きい場合がある。系列要素が存在する場合、この要素が存在する必要がある。</t>
+  </si>
+  <si>
+    <t>32ビット数で表す。これより大きい値の場合は、10進数を使用する。
 シリーズの数</t>
   </si>
   <si>
@@ -829,15 +800,13 @@
 </t>
   </si>
   <si>
-    <t>Number of Study Related Instances　スタディー関連のインスタンス数</t>
-  </si>
-  <si>
-    <t>Number of SOP Instances in Study. This value given may be larger than the number of instance elements this resource contains due to resource availability, security, or other factors. This element should be present if any instance elements are present.
-スタディーの中のSOPインスタンスの数。指定されたこの値は、リソースの可用性、セキュリティ、またはその他の要因により、このリソースに含まれるインスタンス要素の数よりも大きい場合がある。インスタンス要素が存在する場合は、この要素が存在する必要がある。</t>
-  </si>
-  <si>
-    <t>32 bit number; for values larger than this, use decimal
-32ビット数;これより大きい値の場合は、10進数を使用する。
+    <t>スタディ関連のインスタンス数</t>
+  </si>
+  <si>
+    <t>スタディの中のSOPインスタンスの数。指定されたこの値は、リソースの可用性、セキュリティ、またはその他の要因により、このリソースに含まれるインスタンス要素の数よりも大きい場合がある。インスタンス要素が存在する場合は、この要素が存在する必要がある。</t>
+  </si>
+  <si>
+    <t>32ビット数で表す。これより大きい値の場合は、10進数を使用する。
 イメージ（インスタンス）の数。</t>
   </si>
   <si>
@@ -854,15 +823,13 @@
 </t>
   </si>
   <si>
-    <t>The performed Procedure reference　実施されたProcedure への参照</t>
-  </si>
-  <si>
-    <t>The procedure which this ImagingStudy was part of.
-このImagingStudyが含まれていたprocedure リソースへの参照。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
+    <t>実施されたProcedure への参照</t>
+  </si>
+  <si>
+    <t>このImagingStudyが含まれていたprocedure リソースへの参照。</t>
+  </si>
+  <si>
+    <t>参照は、実在するFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 進捗状況に関するProcedureリソースを参照。</t>
   </si>
   <si>
@@ -886,22 +853,20 @@
 </t>
   </si>
   <si>
-    <t>The performed procedure code　実施されたProcedureのコード</t>
-  </si>
-  <si>
-    <t>The code for the performed procedure type.
-実施されたProcedureのタイプを表すコード。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。
+    <t>実施されたProcedureのコード</t>
+  </si>
+  <si>
+    <t>実施されたProcedureのタイプを表すコード。</t>
+  </si>
+  <si>
+    <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。
 エラーコードなどを記載</t>
   </si>
   <si>
-    <t>The performed procedure type.</t>
-  </si>
-  <si>
-    <t>http://www.rsna.org/RadLex_Playbook.aspx</t>
+    <t>コードは http://playbook.radlex.org/playbook/SearchRadlexAction から取得されるべき(SHALL)である。ただし、実施された行為のタイプにこれらのコードがなじまない場合は他のコードが利用される可能性がある。</t>
+  </si>
+  <si>
+    <t>http://playbook.radlex.org/playbook/SearchRadlexAction</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -910,23 +875,21 @@
     <t>ImagingStudy.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
-    <t>Where ImagingStudy occurred　ImagingStudy が起こった場所</t>
-  </si>
-  <si>
-    <t>The principal physical location where the ImagingStudy was performed.
-ImagingStudyが実行された主要な物理的な場所。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
+    <t>ImagingStudy が実施された場所</t>
+  </si>
+  <si>
+    <t>ImagingStudyが実施された主要な物理的な場所。</t>
+  </si>
+  <si>
+    <t>参照は、実在のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 撮影室を示すLocationリソースを参照。</t>
   </si>
   <si>
-    <t>Ties the event to where the records are likely kept and provides context around the event occurrence (e.g. if it occurred inside or outside a dedicated healthcare setting).</t>
+    <t>イベントをレコードが保持される可能性が高い場所に結び付け、イベントの発生に関するコンテキストを提供する。 (たとえば、専用の医療環境の内外で発生した場合など。）</t>
   </si>
   <si>
     <t>Event.location</t>
@@ -947,15 +910,13 @@
     <t>ImagingStudy.reasonCode</t>
   </si>
   <si>
-    <t>Why the study was requested　スタディーが依頼された理由</t>
-  </si>
-  <si>
-    <t>Description of clinical condition indicating why the ImagingStudy was requested.
-ImagingStudyが要求された理由を示す臨床状態の説明。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。
+    <t>スタディが依頼された理由</t>
+  </si>
+  <si>
+    <t>ImagingStudyが要求された理由を示す臨床状態の説明。</t>
+  </si>
+  <si>
+    <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。
 JP Coreでは未使用</t>
   </si>
   <si>
@@ -987,15 +948,13 @@
 </t>
   </si>
   <si>
-    <t>Why was study performed　スタディーが実施された理由</t>
-  </si>
-  <si>
-    <t>Indicates another resource whose existence justifies this Study.
-このスタディーを正当化する別のリソースを示す。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
+    <t>スタディが実施された理由</t>
+  </si>
+  <si>
+    <t>このスタディを正当化する別のリソースを示す。</t>
+  </si>
+  <si>
+    <t>参照は、実在のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 実施理由が書かれたDiagnosticReportリソースを参照。</t>
   </si>
   <si>
@@ -1015,15 +974,13 @@
 </t>
   </si>
   <si>
-    <t>User-defined comments　ユーザが定義したコメント</t>
-  </si>
-  <si>
-    <t>Per the recommended DICOM mapping, this element is derived from the Study Description attribute (0008,1030). Observations or findings about the imaging study should be recorded in another resource, e.g. Observation, and not in this element.
-推奨されるDICOMマッピングによると、この要素はスタディの説明属性（0008,1030）から派生している。画像検査に関する観察または所見は、この要素に記述するのではなく、Observationのような別のリソースに記録する必要がある。</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
+    <t>ユーザが定義したコメント</t>
+  </si>
+  <si>
+    <t>推奨されるDICOMマッピングによると、この要素はスタディの説明属性（0008,1030）から派生している。画像検査に関する観察または所見は、この要素に記述するのではなく、Observationのような別のリソースに記録する必要がある。</t>
+  </si>
+  <si>
+    <t>構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
 *注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。
 コメント（Annotation型による記述）</t>
   </si>
@@ -1041,15 +998,13 @@
 </t>
   </si>
   <si>
-    <t>Institution-generated description　機関生成の記述</t>
-  </si>
-  <si>
-    <t>The Imaging Manager description of the study. Institution-generated description or classification of the Study (component) performed.
-スタディーのイメージングマネージャーの説明。実施されたスタディー（コンポーネント）の機関生成の説明または分類。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列のサイズは1MBを超えてはならないことに注意。
+    <t>機関生成の記述</t>
+  </si>
+  <si>
+    <t>スタディのイメージングマネージャの説明。実施されたスタディ（コンポーネント）の機関生成の説明または分類。</t>
+  </si>
+  <si>
+    <t>FHIR文字列のサイズは1MBを超えてはならないことに注意。
 検査に関するフリーコメント。</t>
   </si>
   <si>
@@ -1066,11 +1021,10 @@
 </t>
   </si>
   <si>
-    <t>Each study has one or more series of instances　個々のスタディーはインスタンスの１以上のシリーズを有する。</t>
-  </si>
-  <si>
-    <t>Each study has one or more series of images or other content.
-個々のスタディーは画像か他の内容の１以上のシリーズを有する。</t>
+    <t>個々のスタディはインスタンスの１以上のシリーズを有する。</t>
+  </si>
+  <si>
+    <t>個々のスタディは画像か他の内容の１以上のシリーズを有する。</t>
   </si>
   <si>
     <t>シリーズ（大まかな画像のグループ）</t>
@@ -1131,15 +1085,10 @@
 </t>
   </si>
   <si>
-    <t>DICOM Series Instance UID for the series　そのシリーズにrタイするDICOMシリーズインスタンスUID</t>
-  </si>
-  <si>
-    <t>The DICOM Series Instance UID for the series.
-そのシリーズにrタイするDICOMシリーズインスタンスUID</t>
-  </si>
-  <si>
-    <t>See [DICOM PS3.3 C.7.3](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.3.html).
-[DICOM PS3.3 C.7.3]（http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.3.html）を参照。
+    <t>そのシリーズに対するDICOM Series Instance UID</t>
+  </si>
+  <si>
+    <t>[DICOM PS3.3 C.7.3]（https://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.3.html）を参照。
 study階層のidentifierと同じ概念。(0020,000E)にseries固有のUIDが付与される。</t>
   </si>
   <si>
@@ -1162,15 +1111,10 @@
 </t>
   </si>
   <si>
-    <t>Numeric identifier of this series　このシリーズの数値型識別子</t>
-  </si>
-  <si>
-    <t>The numeric identifier of this series in the study.
-このシリーズの数値型識別子</t>
-  </si>
-  <si>
-    <t>32 bit number; for values larger than this, use decimal
-32ビット数;これより大きい値の場合は、10進数を使用する。
+    <t>このシリーズの数値型識別子</t>
+  </si>
+  <si>
+    <t>32ビット数で表す。これより大きい値の場合は、10進数を使用する。
 上記UIDとは別に、ユーザー（または装置）が自由に決められる番号。</t>
   </si>
   <si>
@@ -1190,19 +1134,17 @@
 </t>
   </si>
   <si>
-    <t>The modality of the instances in the series　シリーズにおけるインスタンスのモダリティー</t>
-  </si>
-  <si>
-    <t>The modality of this series sequence.
-シリーズシーケンスのモダリティー</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。詳細については、HL7v3コア原則を参照。
+    <t>シリーズが取得されたモダリティ</t>
+  </si>
+  <si>
+    <t>シリーズが取得されたモダリティー</t>
+  </si>
+  <si>
+    <t>コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。ただしJP CoreではSNOMED CTを推奨しない。詳細については、HL7v3コア原則を参照。
 当該シリーズのモダリティコード。1シリーズ1モダリティ（1つのシリーズの中に複数のモダリティが混在することはない）。
 （参照先）
 ftp://medical.nema.org/medical/dicom/resources/valuesets/fhir/json/CID_29.json
-http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
+https://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
   </si>
   <si>
     <t>(0008,0060)</t>
@@ -1215,15 +1157,13 @@
 </t>
   </si>
   <si>
-    <t>A short human readable summary of the series　シリーズの人間可読な短い要約記述</t>
-  </si>
-  <si>
-    <t>A description of the series.
-シリーズの記述。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列のサイズは1MBを超えてはならないことに注意。
+    <t>シリーズの人間可読な形式での短い要約記述</t>
+  </si>
+  <si>
+    <t>シリーズの記述。</t>
+  </si>
+  <si>
+    <t>FHIR文字列のサイズは1MBを超えてはならないことに注意。
 シリーズごとにつけられるフリーコメント。</t>
   </si>
   <si>
@@ -1243,12 +1183,7 @@
     <t>Number of Series Related Instances</t>
   </si>
   <si>
-    <t>Number of SOP Instances in the Study. The value given may be larger than the number of instance elements this resource contains due to resource availability, security, or other factors. This element should be present if any instance elements are present.
-スタディーの中のSOPインスタンスの数。指定されたこの値は、リソースの可用性、セキュリティ、またはその他の要因により、このリソースに含まれるインスタンス要素の数よりも大きい場合がある。インスタンス要素が存在する場合は、この要素が存在する必要がある。</t>
-  </si>
-  <si>
-    <t>32 bit number; for values larger than this, use decimal
-32ビット数;これより大きい値の場合は、10進数を使用する。
+    <t>32ビット数で表す。これより大きい値の場合は、10進数を使用する。
 シリーズに含まれる画像枚数</t>
   </si>
   <si>
@@ -1258,15 +1193,13 @@
     <t>ImagingStudy.series.endpoint</t>
   </si>
   <si>
-    <t>Series access endpoint　シリーズにアクセスするエンドポイント</t>
-  </si>
-  <si>
-    <t>The network service providing access (e.g., query, view, or retrieval) for this series. See implementation notes for information about using DICOM endpoints. A series-level endpoint, if present, has precedence over a study-level endpoint with the same Endpoint.connectionType.
-シリーズへのアクセス（クエリ、表示、取得など）を提供するネットワークサービス。 DICOMエンドポイントの使用については、実装ノートを参照。シリーズレベルのエンドポイントは、同じEndpoint.connectionType.cを持つシリーズレベルのエンドポイントによってオーバーライドされない限り、スタディの各シリーズに適用される。</t>
-  </si>
-  <si>
-    <t>Typical endpoint types include DICOM WADO-RS, which is used to retrieve DICOM instances in native or rendered (e.g., JPG, PNG) formats using a RESTful API; DICOM WADO-URI, which can similarly retrieve native or rendered instances, except using an HTTP query-based approach; and DICOM QIDO-RS, which allows RESTful query for DICOM information without retrieving the actual instances.
-典型的なエンドポイントタイプには、RESTful APIを使用してネイティブまたはレンダリング（JPG、PNGなど）形式でDICOMインスタンスを取得するために使用されるDICOMWADO-RSが含まれる。 DICOMWADO-URI。HTTPクエリベースのアプローチを使用することを除いて、ネイティブインスタンスまたはレンダリングされたインスタンスを同様に取得できる。 DICOM QIDO-RSは、実際のインスタンスを取得せずにDICOM情報のRESTfulクエリを可能にする。
+    <t>シリーズにアクセスするエンドポイント</t>
+  </si>
+  <si>
+    <t>シリーズへのアクセス（クエリ、表示、取得など）を提供するネットワークサービス。 DICOMエンドポイントの使用については、実装ノートを参照。シリーズレベルのエンドポイントは、同じEndpoint.connectionTypeを持つシリーズレベルのエンドポイントによってオーバーライドされない限り、スタディの各シリーズに適用される。</t>
+  </si>
+  <si>
+    <t>典型的なエンドポイントタイプには、RESTful APIを使用してネイティブまたはレンダリング（JPG、PNGなど）形式でDICOMインスタンスを取得するために使用されるDICOMWADO-RSが含まれる。 DICOMWADO-URI。HTTPクエリベースのアプローチを使用することを除いて、ネイティブインスタンスまたはレンダリングされたインスタンスを同様に取得できる。 DICOM QIDO-RSは、実際のインスタンスを取得せずにDICOM情報のRESTfulクエリを可能にする。
 study階層のendpointと同じ。DICOMのリソース位置を指定。基本的には1つ。</t>
   </si>
   <si>
@@ -1280,20 +1213,17 @@
 </t>
   </si>
   <si>
-    <t>Body part examined　検査した人体部位</t>
-  </si>
-  <si>
-    <t>The anatomic structures examined. See DICOM Part 16 Annex L (http://dicom.nema.org/medical/dicom/current/output/chtml/part16/chapter_L.html) for DICOM to SNOMED-CT mappings. The bodySite may indicate the laterality of body part imaged; if so, it shall be consistent with any content of ImagingStudy.series.laterality.
-検査対象の解剖学的構造。 DICOMからSNOMED-CTへのマッピングについては、DICOM Part 16 Annex L（http://dicom.nema.org/medical/dicom/current/output/chtml/part16/chapter_L.html）を参照。
+    <t>検査した人体部位</t>
+  </si>
+  <si>
+    <t>検査対象の解剖学的構造。 
 bodySiteは、画像化された身体部分の左右差を示している場合がある。その場合、ImagingStudy.series.lateralityのコンテンツと一致している必要がある。</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。詳細については、HL7v3コア原則を参照。
-どの部位の検査なのかを示す。フリーではなく、DICOM定義書の中で示される語句しか使えない。</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
+    <t>コードは、列挙型またはコードリストで、どの部位の検査なのかを示す。フリーではなく、DICOM定義書の中で示される語句（コード）をデフォルトとするが、JJ1017Pの小部位コードの利用を許容する。</t>
+  </si>
+  <si>
+    <t>DICOM tagに設定されているコードをデフォルトとするが、JJ1017Pの小部位コードの利用を許容する。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -1308,20 +1238,17 @@
     <t>ImagingStudy.series.laterality</t>
   </si>
   <si>
-    <t>Body part laterality　人体部位の左右識別</t>
-  </si>
-  <si>
-    <t>The laterality of the (possibly paired) anatomic structures examined. E.g., the left knee, both lungs, or unpaired abdomen. If present, shall be consistent with any laterality information indicated in ImagingStudy.series.bodySite.
-検査した（おそらく対になっている）解剖学的構造の左右識別。
+    <t>人体部位の左右識別</t>
+  </si>
+  <si>
+    <t>検査した（おそらく対になっている）解剖学的構造の左右識別。
 例：左膝、両方の肺、または対になっていない腹部。存在する場合は、ImagingStudy.series.bodySiteに示されている左右差情報と一致している必要がある。</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。詳細については、HL7v3コア原則を参照。
-JP Coreでは左右などを示す。フリーではなく、DICOM定義書の中で示される語句しか使えない。</t>
-  </si>
-  <si>
-    <t>Codes describing body site laterality (left, right, etc.).</t>
+    <t>コードは、列挙型またはコードリストで、どの部位の検査なのかを示す。フリーではなく、DICOM定義書の中で示される語句（コード）をデフォルトとするが、JJ1017Pの左右コードの利用を許容する。</t>
+  </si>
+  <si>
+    <t>DICOM定義書の中で示される語句（コード）をデフォルトとするが、JJ1017Pの左右コードの利用を許容する。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/bodysite-laterality</t>
@@ -1337,16 +1264,14 @@
 </t>
   </si>
   <si>
-    <t>Specimen imaged　画像検査をした検体</t>
-  </si>
-  <si>
-    <t>The specimen imaged, e.g., for whole slide imaging of a biopsy.
-例えば、生検のスライド全体の画像化のために画像化された標本。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-Core仕様】UIDは別のtagが存在するので、ユーザー側で自由に付与していい番号と思われる。</t>
+    <t>画像検査をした検体</t>
+  </si>
+  <si>
+    <t>例えば、生検のスライド全体の画像化のために画像化された標本。通常の放射線画像検査では使用されない。（DICOMを用いた病理画像検査で用いられる）</t>
+  </si>
+  <si>
+    <t>参照は、実在のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
+【JP Core仕様】UIDは別のtagが存在するので、ユーザー側で自由に付与していい番号と思われる。</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
@@ -1358,11 +1283,10 @@
     <t>ImagingStudy.series.started</t>
   </si>
   <si>
-    <t>When the series started　シリーズの開始時期</t>
-  </si>
-  <si>
-    <t>The date and time the series was started.
-シリーズの開始日付、日時。</t>
+    <t>シリーズの開始時期</t>
+  </si>
+  <si>
+    <t>シリーズの開始日付、日時。</t>
   </si>
   <si>
     <t>シリーズ単位での開始時刻。最初にシリーズを取得 or 定義した時刻。</t>
@@ -1378,16 +1302,14 @@
 OperatorName</t>
   </si>
   <si>
-    <t>Who performed the series　シリーズの実施者</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the series and how they were involved.
-シリーズを実施し、かかわった人を示す。</t>
-  </si>
-  <si>
-    <t>If the person who performed the series is not known, their Organization may be recorded. A patient, or related person, may be the performer, e.g. for patient-captured images.
-シリーズを行った人がわからない場合は、その組織が記録される場合がある。患者または関係者は、患者自身で取得した画像の場合など、パフォーマーである可能性がある。
-【JP-Core仕様】検査を実施した（画像を取得する操作を行った）人。
+    <t>シリーズの実施者</t>
+  </si>
+  <si>
+    <t>シリーズを実施し、関係した人を示す。</t>
+  </si>
+  <si>
+    <t>シリーズを実施した人がわからない場合は、その組織が記録される場合がある。患者または関係者は、患者自身で取得した画像の場合など、パフォーマーである可能性がある。
+【JP Core仕様】検査を実施した（画像を取得する操作を行った）人。
 　　(0008,1050)Performing Physician's Name
 　　(0008,1052)Performing Physician Identification Sequence
 　　(0008,1070)Operators' Name
@@ -1443,8 +1365,7 @@
     <t>Indicates who or what performed the series.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP-Core仕様】組織または撮影者</t>
+    <t>【JP Core仕様】組織または撮影者</t>
   </si>
   <si>
     <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
@@ -1459,11 +1380,10 @@
     <t>ImagingStudy.series.instance</t>
   </si>
   <si>
-    <t>A single SOP instance from the series　シリーズからの単一SOPインスタンス</t>
-  </si>
-  <si>
-    <t>A single SOP instance within the series, e.g. an image, or presentation state.
-ひとつの画像、またはプレゼンテーションの状態など、シリーズ内の単一のSOPインスタンス。</t>
+    <t>シリーズからの単一SOPインスタンス</t>
+  </si>
+  <si>
+    <t>ひとつの画像、またはプレゼンテーションの状態など、シリーズ内の単一のSOPインスタンス。</t>
   </si>
   <si>
     <t>インスタンス（画像）単位の情報</t>
@@ -1494,8 +1414,8 @@
     <t>The DICOM SOP Instance UID for this image or other DICOM content.</t>
   </si>
   <si>
-    <t>See  [DICOM PS3.3 C.12.1](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.12.html#sect_C.12.1).
-【JP-Core仕様】画像のユニークID。DICOMタグマッピングにある値をそのまま設定。</t>
+    <t>[DICOM PS3.3 C.12.1](https://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.12.html#sect_C.12.1)を参照。
+【JP Core仕様】画像のユニークID。DICOMタグマッピングにある値をそのまま設定。</t>
   </si>
   <si>
     <t>DICOM SOP Instance UID.</t>
@@ -1520,8 +1440,7 @@
     <t>DICOM instance  type.</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-【JP-Core仕様】SOPクラスUID。DICOMタグマッピングにある値をそのまま設定。</t>
+    <t>【JP Core仕様】SOPクラスUID。DICOMタグマッピングにある値をそのまま設定。</t>
   </si>
   <si>
     <t>The sopClass for the instance.</t>
@@ -1549,8 +1468,8 @@
     <t>The number of instance in the series.</t>
   </si>
   <si>
-    <t>32 bit number; for values larger than this, use decimal
-【JP-Core仕様】ユーザー（または装置）が自由に決められる画像ごとの番号。DICOMタグマッピングにある値をそのまま設定。</t>
+    <t>32ビット数で表す。これより大きい値の場合は、10進数を使用する。
+【JP Core仕様】ユーザー（または装置）が自由に決められる画像ごとの番号。DICOMタグマッピングにある値をそのまま設定。</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP, source[classCode=OBSSER, moodCode=EVN]].sequenceNumber</t>
@@ -1562,15 +1481,10 @@
     <t>ImagingStudy.series.instance.title</t>
   </si>
   <si>
-    <t>Description of instance　インスタンスの記述</t>
-  </si>
-  <si>
-    <t>The description of the instance.
-インスタンスの記述</t>
-  </si>
-  <si>
-    <t>Particularly for post-acquisition analytic objects, such as SR, presentation states, value mapping, etc.
-【JP-Core仕様】画像に対する説明。DICOMタグマッピングにある値があれば、そのまま設定
+    <t>インスタンスの記述</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】画像に対する説明。DICOMタグマッピングにある値があれば、そのまま設定
 　　(0008,0008)Image Type
 　　(0040,A043)Concept Name Code Sequence
 　　(0008,0104)Code Meaning
@@ -1906,7 +1820,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="118.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="209.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1919,7 +1833,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="57.8984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="135.109375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="87.2265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3917,10 +3831,10 @@
         <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3988,10 +3902,10 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>215</v>
@@ -4002,11 +3916,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4028,13 +3942,13 @@
         <v>218</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4084,7 +3998,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4102,13 +4016,13 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4116,7 +4030,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4139,19 +4053,19 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4200,7 +4114,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4218,7 +4132,7 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4232,11 +4146,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4255,16 +4169,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4314,7 +4228,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4332,10 +4246,10 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4346,11 +4260,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4369,16 +4283,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4428,7 +4342,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4446,10 +4360,10 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4460,7 +4374,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4483,16 +4397,16 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4542,7 +4456,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4557,13 +4471,13 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4574,11 +4488,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4597,16 +4511,16 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4635,10 +4549,10 @@
         <v>172</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>77</v>
@@ -4656,7 +4570,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4671,13 +4585,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4688,7 +4602,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4711,19 +4625,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4772,7 +4686,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4787,24 +4701,24 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4827,16 +4741,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4862,14 +4776,14 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="X26" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4886,7 +4800,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4901,16 +4815,16 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4918,7 +4832,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4941,16 +4855,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5000,7 +4914,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5015,24 +4929,24 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5055,16 +4969,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5114,7 +5028,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5129,10 +5043,10 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5146,11 +5060,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5172,13 +5086,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5228,7 +5142,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5246,10 +5160,10 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5260,7 +5174,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5283,16 +5197,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5342,7 +5256,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5360,7 +5274,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5374,7 +5288,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5400,10 +5314,10 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5454,7 +5368,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5472,7 +5386,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5486,7 +5400,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5515,7 +5429,7 @@
         <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>136</v>
@@ -5568,7 +5482,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5586,7 +5500,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5600,11 +5514,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5626,10 +5540,10 @@
         <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>136</v>
@@ -5684,7 +5598,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5716,11 +5630,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5739,19 +5653,19 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5764,7 +5678,7 @@
         <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>77</v>
@@ -5800,7 +5714,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>87</v>
@@ -5818,10 +5732,10 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5832,11 +5746,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5855,16 +5769,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5878,7 +5792,7 @@
         <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>77</v>
@@ -5914,7 +5828,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5932,10 +5846,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5946,11 +5860,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5972,13 +5886,13 @@
         <v>168</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6028,7 +5942,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6049,7 +5963,7 @@
         <v>175</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6060,11 +5974,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6086,13 +6000,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6106,7 +6020,7 @@
         <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>77</v>
@@ -6142,7 +6056,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6160,10 +6074,10 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6174,11 +6088,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6197,16 +6111,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6256,7 +6170,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6274,10 +6188,10 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6288,7 +6202,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6311,19 +6225,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6372,7 +6286,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6390,7 +6304,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6404,11 +6318,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6430,13 +6344,13 @@
         <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6462,13 +6376,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6486,7 +6400,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6504,10 +6418,10 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6518,7 +6432,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6544,13 +6458,13 @@
         <v>168</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6576,13 +6490,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6600,7 +6514,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6618,10 +6532,10 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6632,7 +6546,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6655,16 +6569,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6714,7 +6628,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6732,10 +6646,10 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6746,7 +6660,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6772,13 +6686,13 @@
         <v>197</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6828,7 +6742,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6849,7 +6763,7 @@
         <v>203</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6860,11 +6774,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6883,19 +6797,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6944,7 +6858,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6959,13 +6873,13 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6976,7 +6890,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7002,10 +6916,10 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7056,7 +6970,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7074,7 +6988,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7088,7 +7002,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7117,7 +7031,7 @@
         <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>136</v>
@@ -7170,7 +7084,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7188,7 +7102,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7202,11 +7116,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7228,10 +7142,10 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>136</v>
@@ -7286,7 +7200,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7318,7 +7232,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7341,17 +7255,17 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7379,10 +7293,10 @@
         <v>172</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7400,7 +7314,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7418,7 +7332,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7432,7 +7346,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7455,16 +7369,16 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7514,7 +7428,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>87</v>
@@ -7532,21 +7446,21 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7569,16 +7483,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7628,7 +7542,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7646,7 +7560,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7660,7 +7574,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7686,10 +7600,10 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7740,7 +7654,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7758,7 +7672,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7772,7 +7686,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7801,7 +7715,7 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>136</v>
@@ -7854,7 +7768,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7872,7 +7786,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7886,11 +7800,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7912,10 +7826,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>136</v>
@@ -7970,7 +7884,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8002,11 +7916,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8025,19 +7939,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8050,7 +7964,7 @@
         <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>77</v>
@@ -8086,7 +8000,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>87</v>
@@ -8104,10 +8018,10 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8118,11 +8032,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8144,13 +8058,13 @@
         <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8179,10 +8093,10 @@
         <v>172</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8200,7 +8114,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>87</v>
@@ -8218,10 +8132,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8232,11 +8146,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8255,16 +8169,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8314,7 +8228,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8332,10 +8246,10 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8346,7 +8260,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8372,13 +8286,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8428,7 +8342,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8446,10 +8360,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
